--- a/GATEWAY/A1#111GRUPPOGPI00/GPI_SPA/G2 WEB/2.7_b1/G2 WEB accreditamento-checklist_V8.1.3.xlsx
+++ b/GATEWAY/A1#111GRUPPOGPI00/GPI_SPA/G2 WEB/2.7_b1/G2 WEB accreditamento-checklist_V8.1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u01113\Desktop\GatewayInLocale\A1#111GRUPPOGPI00\GPI_SPA\G2 WEB\2.7_b1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5094F0A-882D-4C40-84AC-D4AC5E63C6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAB5002-6FB5-410B-85F5-A0149EE5665C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4745,15 +4745,6 @@
     <t>2024-01-31T11:23:17.374Z</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.50.4.4.c05315fb1fc797272907ba24597f12ff28726c2ac3fd1ca7abe437c27f4a869b.a27b0b115b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>e588801cdc14c34f</t>
-  </si>
-  <si>
-    <t>2024-01-31T11:24:54.781Z</t>
-  </si>
-  <si>
     <t>Il software G2 WEB non gestisce l'informazione richiesta dal caso di test. Per questa ragione il caso di test 12 non può essere eseguito.</t>
   </si>
   <si>
@@ -4764,6 +4755,15 @@
   </si>
   <si>
     <t>Il software G2 WEB non gestisce l'informazione richiesta dal caso di test. Per questa ragione il caso di test 16  non può essere eseguito.</t>
+  </si>
+  <si>
+    <t>7be2c9ff4d3a7bde</t>
+  </si>
+  <si>
+    <t>2024-02-01T10:16:36.875Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.4.4.c05315fb1fc797272907ba24597f12ff28726c2ac3fd1ca7abe437c27f4a869b.7d219fb8d2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -5247,6 +5247,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -5265,10 +5269,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -7732,7 +7732,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J395" sqref="J395"/>
+      <selection pane="bottomRight" activeCell="G400" sqref="G400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -7770,12 +7770,12 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="39"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="41"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -7793,14 +7793,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="39"/>
+      <c r="D3" s="41"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -7818,12 +7818,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="47" t="s">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -7842,12 +7842,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="47" t="s">
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="41"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -7865,8 +7865,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -13473,7 +13473,7 @@
         <v>122</v>
       </c>
       <c r="K165" s="25" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="L165" s="25"/>
       <c r="M165" s="25"/>
@@ -13511,7 +13511,7 @@
         <v>122</v>
       </c>
       <c r="K166" s="25" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="L166" s="25"/>
       <c r="M166" s="25"/>
@@ -13598,16 +13598,16 @@
         <v>407</v>
       </c>
       <c r="F168" s="23">
-        <v>45322</v>
+        <v>45323</v>
       </c>
       <c r="G168" s="29" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="H168" s="29" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="I168" s="29" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="J168" s="25" t="s">
         <v>121</v>
@@ -13661,7 +13661,7 @@
         <v>122</v>
       </c>
       <c r="K169" s="25" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="L169" s="25"/>
       <c r="M169" s="25"/>
@@ -13889,7 +13889,7 @@
         <v>122</v>
       </c>
       <c r="K175" s="25" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="L175" s="25"/>
       <c r="M175" s="25"/>
